--- a/python/PYDATAexam/data/미세먼지 측정소별 교통량.xlsx
+++ b/python/PYDATAexam/data/미세먼지 측정소별 교통량.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>중구(서소문동)</t>
   </si>
@@ -891,9 +891,6 @@
     <t>37.57220345748283, 127.00495385379092</t>
   </si>
   <si>
-    <t>37.58507202929658, 127.09392112495595</t>
-  </si>
-  <si>
     <t>중랑구(면목동,면목본동)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -1061,87 +1058,96 @@
     <t>북한산</t>
   </si>
   <si>
+    <t>세곡</t>
+  </si>
+  <si>
+    <t>강남구 밤고개로 337 (세곡사거리)</t>
+  </si>
+  <si>
+    <t>37.48195921030677, 127.0359451956356</t>
+  </si>
+  <si>
+    <t>37.539005971269816, 127.0416341557477</t>
+  </si>
+  <si>
+    <t>37.56206562211492, 126.82688507442488</t>
+  </si>
+  <si>
+    <t>37.51650543253519, 127.02021182327523</t>
+  </si>
+  <si>
+    <t>37.4866075437991, 126.98188035577397</t>
+  </si>
+  <si>
+    <t>금천구 독산동 996-9</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4751430594987, 126.89863191161255</t>
+  </si>
+  <si>
+    <t>37.55605397290101, 126.93701771757537</t>
+  </si>
+  <si>
+    <t>37.519380225164824, 126.904628812047</t>
+  </si>
+  <si>
+    <t>37.603742627331705, 127.02599833223333</t>
+  </si>
+  <si>
+    <t>37.57152389455453, 126.99567214638721</t>
+  </si>
+  <si>
+    <t>37.53414847626643, 127.13931602870262</t>
+  </si>
+  <si>
+    <t>37.56883178559789, 126.99808236743618</t>
+  </si>
+  <si>
+    <t>37.549277133542354, 126.97043361161408</t>
+  </si>
+  <si>
+    <t>37.58053831772776, 127.04444305743175</t>
+  </si>
+  <si>
+    <t>37.61781726545141, 127.07509573960363</t>
+  </si>
+  <si>
+    <t>37.44331470968937, 126.9671007388262</t>
+  </si>
+  <si>
+    <t>37.49868518238417, 126.83032172880517</t>
+  </si>
+  <si>
+    <t>37.551339498038715, 126.98828024229921</t>
+  </si>
+  <si>
+    <t>37.679247431630145, 127.00235103320048</t>
+  </si>
+  <si>
+    <t>37.46425750759732, 127.10890988277653</t>
+  </si>
+  <si>
+    <t>2008합</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>강북구 삼양로 181길 387 (우이령 전경대 위)</t>
-  </si>
-  <si>
-    <t>세곡</t>
-  </si>
-  <si>
-    <t>강남구 밤고개로 337 (세곡사거리)</t>
-  </si>
-  <si>
-    <t>37.48195921030677, 127.0359451956356</t>
-  </si>
-  <si>
-    <t>37.539005971269816, 127.0416341557477</t>
-  </si>
-  <si>
-    <t>37.56206562211492, 126.82688507442488</t>
-  </si>
-  <si>
-    <t>37.51650543253519, 127.02021182327523</t>
-  </si>
-  <si>
-    <t>37.4866075437991, 126.98188035577397</t>
-  </si>
-  <si>
-    <t>금천구 독산동 996-9</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.4751430594987, 126.89863191161255</t>
-  </si>
-  <si>
-    <t>37.55605397290101, 126.93701771757537</t>
-  </si>
-  <si>
-    <t>37.519380225164824, 126.904628812047</t>
-  </si>
-  <si>
-    <t>37.603742627331705, 127.02599833223333</t>
-  </si>
-  <si>
-    <t>37.57152389455453, 126.99567214638721</t>
-  </si>
-  <si>
-    <t>37.53414847626643, 127.13931602870262</t>
-  </si>
-  <si>
-    <t>37.56883178559789, 126.99808236743618</t>
-  </si>
-  <si>
-    <t>37.549277133542354, 126.97043361161408</t>
-  </si>
-  <si>
-    <t>37.58053831772776, 127.04444305743175</t>
-  </si>
-  <si>
-    <t>37.61781726545141, 127.07509573960363</t>
-  </si>
-  <si>
-    <t>37.44331470968937, 126.9671007388262</t>
-  </si>
-  <si>
-    <t>37.49868518238417, 126.83032172880517</t>
-  </si>
-  <si>
-    <t>37.551339498038715, 126.98828024229921</t>
-  </si>
-  <si>
-    <t>37.679247431630145, 127.00235103320048</t>
-  </si>
-  <si>
-    <t>37.46425750759732, 127.10890988277653</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.58510354165147, 127.09396925384974</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="###,###"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1349,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2072,7 +2085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2185,6 +2198,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="10" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="11" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2619,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AG47"/>
+  <dimension ref="C1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2634,12 +2785,12 @@
     <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33">
+    <row r="1" spans="3:34">
       <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
       </c>
       <c r="E1" t="s">
         <v>57</v>
@@ -2657,79 +2808,82 @@
         <v>76</v>
       </c>
       <c r="J1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>85</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>86</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>89</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>90</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>92</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>94</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>96</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>97</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>99</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="3:33">
+    <row r="2" spans="3:34">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2748,8 +2902,18 @@
       <c r="I2" s="2">
         <v>1019.1428571428571</v>
       </c>
-    </row>
-    <row r="3" spans="3:33">
+      <c r="J2" s="38">
+        <f>SUM(H2,I2)</f>
+        <v>2729.9428571428571</v>
+      </c>
+      <c r="K2">
+        <v>1548</v>
+      </c>
+      <c r="L2" s="59">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="3:34">
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2768,16 +2932,26 @@
       <c r="I3" s="8">
         <v>1607.7142857142858</v>
       </c>
-    </row>
-    <row r="4" spans="3:33">
+      <c r="J3" s="38">
+        <f t="shared" ref="J3:J46" si="0">SUM(H3,I3)</f>
+        <v>3251</v>
+      </c>
+      <c r="K3">
+        <v>1577</v>
+      </c>
+      <c r="L3" s="59">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="4" spans="3:34">
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2788,8 +2962,12 @@
       <c r="I4" s="6">
         <v>1992.1428571428571</v>
       </c>
-    </row>
-    <row r="5" spans="3:33">
+      <c r="J4" s="38">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="5" spans="3:34">
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
@@ -2797,10 +2975,10 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="9">
         <v>1282.8571428571429</v>
@@ -2808,8 +2986,12 @@
       <c r="I5" s="10">
         <v>1992.1428571428571</v>
       </c>
-    </row>
-    <row r="6" spans="3:33">
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="6" spans="3:34">
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2999,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
@@ -2828,8 +3010,12 @@
       <c r="I6" s="12">
         <v>816.28571428571433</v>
       </c>
-    </row>
-    <row r="7" spans="3:33">
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>1934.2857142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="3:34">
       <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -2848,8 +3034,12 @@
       <c r="I7" s="14">
         <v>4758.7142857142853</v>
       </c>
-    </row>
-    <row r="8" spans="3:33">
+      <c r="J7" s="38">
+        <f t="shared" si="0"/>
+        <v>9199.2857142857138</v>
+      </c>
+    </row>
+    <row r="8" spans="3:34">
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2857,7 +3047,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -2868,8 +3058,12 @@
       <c r="I8" s="16">
         <v>1651.7142857142858</v>
       </c>
-    </row>
-    <row r="9" spans="3:33">
+      <c r="J8" s="38">
+        <f t="shared" si="0"/>
+        <v>3195.5714285714284</v>
+      </c>
+    </row>
+    <row r="9" spans="3:34">
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2877,7 +3071,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2888,8 +3082,12 @@
       <c r="I9" s="18">
         <v>2878</v>
       </c>
-    </row>
-    <row r="10" spans="3:33">
+      <c r="J9" s="38">
+        <f t="shared" si="0"/>
+        <v>5701.7142857142862</v>
+      </c>
+    </row>
+    <row r="10" spans="3:34">
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2897,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
@@ -2908,16 +3106,20 @@
       <c r="I10" s="20">
         <v>446.42857142857144</v>
       </c>
-    </row>
-    <row r="11" spans="3:33">
+      <c r="J10" s="38">
+        <f t="shared" si="0"/>
+        <v>863.57142857142867</v>
+      </c>
+    </row>
+    <row r="11" spans="3:34">
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -2928,30 +3130,38 @@
       <c r="I11" s="22">
         <v>1705</v>
       </c>
-    </row>
-    <row r="12" spans="3:33">
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>3421.7142857142858</v>
+      </c>
+    </row>
+    <row r="12" spans="3:34">
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="3:33">
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:34">
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -2962,8 +3172,12 @@
       <c r="I13" s="24">
         <v>1728.4285714285713</v>
       </c>
-    </row>
-    <row r="14" spans="3:33">
+      <c r="J13" s="38">
+        <f t="shared" si="0"/>
+        <v>3878.2857142857138</v>
+      </c>
+    </row>
+    <row r="14" spans="3:34">
       <c r="C14">
         <v>91</v>
       </c>
@@ -2985,8 +3199,12 @@
       <c r="I14" s="26">
         <v>1322.8571428571429</v>
       </c>
-    </row>
-    <row r="15" spans="3:33">
+      <c r="J14" s="38">
+        <f t="shared" si="0"/>
+        <v>2432.4285714285716</v>
+      </c>
+    </row>
+    <row r="15" spans="3:34">
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3005,8 +3223,12 @@
       <c r="I15" s="28">
         <v>1407.5714285714287</v>
       </c>
-    </row>
-    <row r="16" spans="3:33">
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>2936.4285714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="3:34">
       <c r="C16">
         <v>26</v>
       </c>
@@ -3028,8 +3250,12 @@
       <c r="I16" s="30">
         <v>1582.8571428571429</v>
       </c>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="J16" s="38">
+        <f t="shared" si="0"/>
+        <v>3019.4571428571426</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17">
         <v>30</v>
       </c>
@@ -3051,8 +3277,12 @@
       <c r="I17" s="32">
         <v>1306.2857142857142</v>
       </c>
-    </row>
-    <row r="18" spans="3:9">
+      <c r="J17" s="38">
+        <f t="shared" si="0"/>
+        <v>3202.7142857142853</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18">
         <v>91</v>
       </c>
@@ -3068,14 +3298,14 @@
       <c r="G18" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="33">
-        <v>1109.5714285714287</v>
-      </c>
-      <c r="I18" s="34">
-        <v>1322.8571428571429</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3088,8 +3318,18 @@
       <c r="G19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="H19" s="39">
+        <v>1109.5714285714287</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1322.8571428571429</v>
+      </c>
+      <c r="J19" s="38">
+        <f t="shared" si="0"/>
+        <v>2432.4285714285716</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
       <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3102,8 +3342,18 @@
       <c r="G20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="H20" s="42">
+        <v>2015.8571428571429</v>
+      </c>
+      <c r="I20" s="41">
+        <v>2027.5714285714287</v>
+      </c>
+      <c r="J20" s="38">
+        <f t="shared" si="0"/>
+        <v>4043.4285714285716</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
       <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3116,8 +3366,18 @@
       <c r="G21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="H21" s="44">
+        <v>2074.4285714285716</v>
+      </c>
+      <c r="I21" s="43">
+        <v>2251.7142857142858</v>
+      </c>
+      <c r="J21" s="38">
+        <f t="shared" si="0"/>
+        <v>4326.1428571428569</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3130,8 +3390,18 @@
       <c r="G22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="3:9">
+      <c r="H22" s="46">
+        <v>1654.1428571428571</v>
+      </c>
+      <c r="I22" s="45">
+        <v>2019</v>
+      </c>
+      <c r="J22" s="38">
+        <f t="shared" si="0"/>
+        <v>3673.1428571428569</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
       <c r="D23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3144,8 +3414,18 @@
       <c r="G23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="3:9">
+      <c r="H23" s="48">
+        <v>2506.7142857142858</v>
+      </c>
+      <c r="I23" s="47">
+        <v>2525.7142857142858</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" si="0"/>
+        <v>5032.4285714285716</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
       <c r="D24" s="3" t="s">
         <v>106</v>
       </c>
@@ -3158,8 +3438,18 @@
       <c r="G24" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="25" spans="3:9">
+      <c r="H24" s="50">
+        <v>5161.5714285714284</v>
+      </c>
+      <c r="I24" s="49">
+        <v>5003.1428571428569</v>
+      </c>
+      <c r="J24" s="38">
+        <f t="shared" si="0"/>
+        <v>10164.714285714286</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
       <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
@@ -3172,8 +3462,18 @@
       <c r="G25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="3:9">
+      <c r="H25" s="52">
+        <v>1377.2857142857142</v>
+      </c>
+      <c r="I25" s="51">
+        <v>1434.1428571428571</v>
+      </c>
+      <c r="J25" s="38">
+        <f t="shared" si="0"/>
+        <v>2811.4285714285716</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
@@ -3186,228 +3486,414 @@
       <c r="G26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="3:9">
+      <c r="H26" s="54">
+        <v>1785.2857142857142</v>
+      </c>
+      <c r="I26" s="53">
+        <v>2487.5714285714284</v>
+      </c>
+      <c r="J26" s="38">
+        <f t="shared" si="0"/>
+        <v>4272.8571428571431</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
       <c r="D27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="D28" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E28" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="D29" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="3:9">
-      <c r="D28" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H29" s="56">
+        <v>1624.7142857142858</v>
+      </c>
+      <c r="I29" s="55">
+        <v>1706.8571428571429</v>
+      </c>
+      <c r="J29" s="38">
+        <f t="shared" si="0"/>
+        <v>3331.5714285714284</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="D30" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="29" spans="3:9">
-      <c r="D29" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="J30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="D31" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" spans="3:9">
-      <c r="D30" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="H31" s="58">
+        <v>1976.2857142857142</v>
+      </c>
+      <c r="I31" s="57">
+        <v>1905.1428571428571</v>
+      </c>
+      <c r="J31" s="38">
+        <f t="shared" si="0"/>
+        <v>3881.4285714285716</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="D32" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="31" spans="3:9">
-      <c r="D31" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="35" t="s">
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="61">
+        <v>2074.4285714285716</v>
+      </c>
+      <c r="I32" s="60">
+        <v>2251.7142857142858</v>
+      </c>
+      <c r="J32" s="38">
+        <f t="shared" si="0"/>
+        <v>4326.1428571428569</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9">
-      <c r="D32" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="35" t="s">
+      <c r="F33" t="s">
         <v>175</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H33" s="62">
+        <v>1486.8571428571429</v>
+      </c>
+      <c r="I33" s="63">
+        <v>1159.7142857142858</v>
+      </c>
+      <c r="J33" s="38">
+        <f t="shared" si="0"/>
+        <v>2646.5714285714284</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="H34" s="65">
+        <v>1543.8571428571429</v>
+      </c>
+      <c r="I34" s="64">
+        <v>1651.7142857142858</v>
+      </c>
+      <c r="J34" s="38">
+        <f t="shared" si="0"/>
+        <v>3195.5714285714284</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="H35" s="67">
+        <v>892.14285714285711</v>
+      </c>
+      <c r="I35" s="66">
+        <v>669.57142857142856</v>
+      </c>
+      <c r="J35" s="38">
+        <f t="shared" si="0"/>
+        <v>1561.7142857142858</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="35" spans="4:6">
-      <c r="D35" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="H36" s="68">
+        <v>1643.2857142857142</v>
+      </c>
+      <c r="I36" s="69">
+        <v>1607.7142857142858</v>
+      </c>
+      <c r="J36" s="38">
+        <f t="shared" si="0"/>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="4:6">
-      <c r="D36" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="H37" s="71">
+        <v>2149.8571428571427</v>
+      </c>
+      <c r="I37" s="70">
+        <v>1728.4285714285713</v>
+      </c>
+      <c r="J37" s="38">
+        <f t="shared" si="0"/>
+        <v>3878.2857142857138</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="4:6">
-      <c r="D37" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="H38" s="71">
+        <v>1643.2857142857142</v>
+      </c>
+      <c r="I38" s="71">
+        <v>1607.7142857142858</v>
+      </c>
+      <c r="J38" s="38">
+        <f t="shared" ref="J38" si="1">SUM(H38,I38)</f>
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="38" spans="4:6">
-      <c r="D38" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="J39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="39" spans="4:6">
-      <c r="D39" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="H40" s="73">
+        <v>1282.8571428571429</v>
+      </c>
+      <c r="I40" s="72">
+        <v>1992.1428571428571</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="0"/>
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="40" spans="4:6">
-      <c r="D40" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H41" s="76">
+        <v>927.14285714285711</v>
+      </c>
+      <c r="I41" s="74">
+        <v>937.57142857142856</v>
+      </c>
+      <c r="J41" s="38">
+        <f t="shared" si="0"/>
+        <v>1864.7142857142858</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="41" spans="4:6">
-      <c r="D41" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="H42" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="38">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="42" spans="4:6">
-      <c r="D42" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="H43" s="77">
+        <v>1135.1428571428571</v>
+      </c>
+      <c r="I43" s="78">
+        <v>1348.8571428571429</v>
+      </c>
+      <c r="J43" s="38">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="43" spans="4:6">
-      <c r="D43" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="H44" s="81">
+        <v>495.14285714285717</v>
+      </c>
+      <c r="I44" s="79">
+        <v>469.28571428571428</v>
+      </c>
+      <c r="J44" s="38">
+        <f t="shared" si="0"/>
+        <v>964.42857142857144</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="44" spans="4:6">
-      <c r="D44" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="H45" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="I45" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="4:6">
-      <c r="D45" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6">
-      <c r="D46" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6">
+      <c r="H46" s="83">
+        <v>814.85714285714289</v>
+      </c>
+      <c r="I46" s="82">
+        <v>774.71428571428567</v>
+      </c>
+      <c r="J46" s="38">
+        <f t="shared" si="0"/>
+        <v>1589.5714285714284</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10">
       <c r="D47" s="37"/>
       <c r="E47" s="35"/>
     </row>
